--- a/Research/phone poll.xlsx
+++ b/Research/phone poll.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21560" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Brand</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Qualcomm Snapdragon 410 </t>
   </si>
   <si>
-    <t>Redmi y2</t>
-  </si>
-  <si>
     <t>10.or e</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">Qualcomm Snapdragon 732 </t>
   </si>
   <si>
-    <t>Smasung Galazy j7 Prime</t>
-  </si>
-  <si>
     <t>Poco M2</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>Qualcomm Snapgradon 430</t>
   </si>
   <si>
-    <t>Moto G4 Pluse</t>
-  </si>
-  <si>
     <t>Qualcomm Snapdragon 617</t>
   </si>
   <si>
@@ -132,13 +123,43 @@
   </si>
   <si>
     <t>Qualcomm Snapdragon 625</t>
+  </si>
+  <si>
+    <t>Android OS Version</t>
+  </si>
+  <si>
+    <t>6.0.1</t>
+  </si>
+  <si>
+    <t>Moto G4 Plus</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>microUSB 2.0</t>
+  </si>
+  <si>
+    <t>USB Type-C 2.0, USB On-The-Go</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy j7 Prime</t>
+  </si>
+  <si>
+    <t>microUSB 2.0, USB On-The-Go</t>
+  </si>
+  <si>
+    <t>Vivo Y12s</t>
+  </si>
+  <si>
+    <t>USB USB Type-C 3.1, USB On-The-Go</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +174,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +202,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,19 +483,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,10 +508,16 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -491,13 +527,19 @@
       <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>7.1</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -505,13 +547,19 @@
       <c r="C3">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -519,13 +567,19 @@
       <c r="C4">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -533,13 +587,16 @@
       <c r="C6">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -547,13 +604,19 @@
       <c r="C7">
         <v>128</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -561,13 +624,16 @@
       <c r="C8">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -575,8 +641,14 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -587,10 +659,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -600,13 +678,19 @@
       <c r="C13">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -614,13 +698,19 @@
       <c r="C14">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -628,21 +718,30 @@
       <c r="C15">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -650,13 +749,19 @@
       <c r="C18">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -664,13 +769,19 @@
       <c r="C19">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -678,10 +789,16 @@
       <c r="C20">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -689,13 +806,19 @@
       <c r="C22">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -703,13 +826,19 @@
       <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -717,8 +846,11 @@
       <c r="C26">
         <v>256</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Research/phone poll.xlsx
+++ b/Research/phone poll.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SujayGarlanka/Projects/Jamak.ai/Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SujayGarlanka/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21560" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16280" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>Vivo Y12s</t>
   </si>
   <si>
-    <t>USB USB Type-C 3.1, USB On-The-Go</t>
+    <t>USB Type-C 3.1, USB On-The-Go</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
